--- a/productos_wc.xlsx
+++ b/productos_wc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,861 @@
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Carajillo Especial Brandy 1L</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Carajillo Especial Ron 1L</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pack Caja 100ml x 6 unidades</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ice Drink Flash 12 unidades</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1661</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ice Drink Pack 8 unidades</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1699</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pack Caja 50ml x 8unidades</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pack Expositor 100ml x 8unidades</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pack Expositor 50ml x 12 unidades</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lobo Santo Licor de Ron 700ml</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vino Blanco 100 Pecados 750ml - Verdejo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1654</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vino Rosado Luna del Mediterráneo 750ml</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1649</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Vino Tinto Luna del Mediterráneo 750ml</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1646</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vino Blanco Luna del Mediterráneo 750ml - Verdejo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rebel Monkey 700ml</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Spice Monkey PREMIUM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anís 100 Pecados 1L</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Vodka White 700ml</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Vodka Rosée 700ml</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Spice Monkey 700ml</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gin Mint 700ml</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gin White 700ml</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Gin Rosée Strawberry 700ml</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ron Dorado Dale Caña 700ml</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Licor de Regaliz la Claudia 700ml</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Absenta Malasangre 700ml</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Licor Torcida de Fresa 700ml</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1422</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Carajillo Whisky 700ml</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Carajillo Brandy 700ml</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ron Blanco Dale Caña 700ml</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1411</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gin White 700ml PREMIUM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gin Mint 700ml PREMIUM</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Carajillo Ron 700ml</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gin Rosée 700ml PREMIUM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Import placeholder for 648</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Import placeholder for 309</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Import placeholder for 308</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Import placeholder for 306</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>951</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Import placeholder for 239</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>950</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Import placeholder for 238</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>949</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Import placeholder for 236</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>948</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Import placeholder for 45</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
